--- a/notebook-tests/Seedbox/barangay_elections_political_survey_malabon_2023.xlsx
+++ b/notebook-tests/Seedbox/barangay_elections_political_survey_malabon_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14304"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14304" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CONGRESS" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -190,36 +190,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -521,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,10 +1073,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G22">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"LOSE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"WIN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1118,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,7 +1139,7 @@
         <v>26</v>
       </c>
       <c r="F2">
-        <f>SUM(C2:E2)</f>
+        <f t="shared" ref="F2:F22" si="0">SUM(C2:E2)</f>
         <v>53</v>
       </c>
       <c r="G2" t="str">
@@ -1194,11 +1164,11 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <f>SUM(C3:E3)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G22" si="0">IF(AND(C3&gt;D3,C3&gt;E3), "WIN", "LOSE")</f>
+        <f t="shared" ref="G3:G22" si="1">IF(AND(C3&gt;D3,C3&gt;E3), "WIN", "LOSE")</f>
         <v>LOSE</v>
       </c>
     </row>
@@ -1219,11 +1189,11 @@
         <v>34</v>
       </c>
       <c r="F4">
-        <f>SUM(C4:E4)</f>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1244,11 +1214,11 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <f>SUM(C5:E5)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1269,11 +1239,11 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <f>SUM(C6:E6)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1294,11 +1264,11 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <f>SUM(C7:E7)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1319,11 +1289,11 @@
         <v>21</v>
       </c>
       <c r="F8">
-        <f>SUM(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1344,11 +1314,11 @@
         <v>19</v>
       </c>
       <c r="F9">
-        <f>SUM(C9:E9)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1369,11 +1339,11 @@
         <v>16</v>
       </c>
       <c r="F10">
-        <f>SUM(C10:E10)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1394,11 +1364,11 @@
         <v>12</v>
       </c>
       <c r="F11">
-        <f>SUM(C11:E11)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1419,11 +1389,11 @@
         <v>16</v>
       </c>
       <c r="F12">
-        <f>SUM(C12:E12)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1444,11 +1414,11 @@
         <v>27</v>
       </c>
       <c r="F13">
-        <f>SUM(C13:E13)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1469,11 +1439,11 @@
         <v>30</v>
       </c>
       <c r="F14">
-        <f>SUM(C14:E14)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1494,11 +1464,11 @@
         <v>21</v>
       </c>
       <c r="F15">
-        <f>SUM(C15:E15)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1519,11 +1489,11 @@
         <v>24</v>
       </c>
       <c r="F16">
-        <f>SUM(C16:E16)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1544,11 +1514,11 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <f>SUM(C17:E17)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1569,11 +1539,11 @@
         <v>70</v>
       </c>
       <c r="F18">
-        <f>SUM(C18:E18)</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1594,11 +1564,11 @@
         <v>102</v>
       </c>
       <c r="F19">
-        <f>SUM(C19:E19)</f>
+        <f t="shared" si="0"/>
         <v>166</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1619,11 +1589,11 @@
         <v>26</v>
       </c>
       <c r="F20">
-        <f>SUM(C20:E20)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1644,11 +1614,11 @@
         <v>33</v>
       </c>
       <c r="F21">
-        <f>SUM(C21:E21)</f>
+        <f t="shared" si="0"/>
         <v>159</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1669,11 +1639,11 @@
         <v>30</v>
       </c>
       <c r="F22">
-        <f>SUM(C22:E22)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
     </row>
@@ -1686,15 +1656,15 @@
         <v>301</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:F23" si="1">SUM(D2:D22)</f>
+        <f t="shared" ref="D23:F23" si="2">SUM(D2:D22)</f>
         <v>599</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
     </row>
@@ -1707,11 +1677,11 @@
         <v>0.20066666666666666</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ref="D24:E24" si="2">D23/$F$23</f>
+        <f t="shared" ref="D24:E24" si="3">D23/$F$23</f>
         <v>0.39933333333333332</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="F24" s="1">
@@ -1721,10 +1691,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G22">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"WIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"LOSE"</formula>
     </cfRule>
   </conditionalFormatting>
